--- a/contributes.xlsx
+++ b/contributes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www.gugugu.xyz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930EDBEC-E768-4782-8070-864821232D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D67868E-E705-40BF-90A4-D92F26732C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13200" yWindow="15840" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>popped chorus fruit</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆裂紫颂果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫颂果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云杉原木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿宝石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,30 +409,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="3" max="4" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>20220626</v>
       </c>
@@ -418,11 +442,14 @@
       <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>-64</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>20220626</v>
       </c>
@@ -432,11 +459,14 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>-28</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>20220626</v>
       </c>
@@ -446,11 +476,14 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
         <v>-8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>20220626</v>
       </c>
@@ -460,11 +493,14 @@
       <c r="C5" t="s">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>20220626</v>
       </c>
@@ -474,11 +510,14 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>20220626</v>
       </c>
@@ -488,11 +527,14 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>20220626</v>
       </c>
@@ -502,8 +544,45 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
         <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>20220626</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>20220626</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
